--- a/Documents/Women Applicants.xlsx
+++ b/Documents/Women Applicants.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Women-Coders\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -11,12 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$8</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -228,12 +236,15 @@
  interested in car pool if there
  are others</t>
   </si>
+  <si>
+    <t>Rank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +274,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -296,6 +315,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -306,6 +326,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +412,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,226 +621,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="99.140625" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="99.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>6617334629</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="D5">
         <v>17147262643</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>6617334629</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>9492414922</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>9492414922</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I8"/>
+  <sortState ref="A2:I8">
+    <sortCondition ref="A1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="tel:626-388-6619"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3" display="mailto:jmoreno@wellesley.edu"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6" display="tel:650-492-1346"/>
-    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId1" display="tel:626-388-6619"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3" display="mailto:jmoreno@wellesley.edu"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId6" display="tel:650-492-1346"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
